--- a/1. Laporan hasil/2. hasil M1 - tanpa random state/hasil tanpa random state.xlsx
+++ b/1. Laporan hasil/2. hasil M1 - tanpa random state/hasil tanpa random state.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil M1 - tanpa random state\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\1. Laporan hasil\2. hasil M1 - tanpa random state\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4491F-F0A1-462D-8CA9-62A04CF7509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE39668F-19C2-4694-BC0E-8A36B01B9D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M1 normalize" sheetId="2" r:id="rId1"/>
@@ -525,7 +525,7 @@
   </sheetPr>
   <dimension ref="A5:T27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:T27"/>
     </sheetView>
   </sheetViews>
@@ -1749,16 +1749,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1771,7 +1771,7 @@
   </sheetPr>
   <dimension ref="A5:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -3006,16 +3006,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
